--- a/DATA_goal/Junction_Flooding_283.xlsx
+++ b/DATA_goal/Junction_Flooding_283.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41715.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.36</v>
+        <v>0.44</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.15</v>
+        <v>0.51</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>9.77</v>
+        <v>0.98</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>8.91</v>
+        <v>0.89</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.67</v>
+        <v>0.47</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.77</v>
+        <v>0.28</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.99</v>
+        <v>0.6</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.37</v>
+        <v>0.74</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>3.85</v>
+        <v>0.39</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.43</v>
+        <v>0.34</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>5.84</v>
+        <v>0.58</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>55.79</v>
+        <v>5.58</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>11.3</v>
+        <v>1.13</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.11</v>
+        <v>0.31</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>6.67</v>
+        <v>0.67</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.62</v>
+        <v>0.46</v>
       </c>
       <c r="Y2" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Z2" s="4" t="n">
         <v>0.7</v>
       </c>
-      <c r="Z2" s="4" t="n">
-        <v>6.98</v>
-      </c>
       <c r="AA2" s="4" t="n">
-        <v>3.3</v>
+        <v>0.33</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.27</v>
+        <v>0.53</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.45</v>
+        <v>0.25</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.62</v>
+        <v>0.66</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>7.57</v>
+        <v>0.76</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>1.98</v>
+        <v>0.2</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>4.53</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41715.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>15.56</v>
+        <v>1.56</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>12.48</v>
+        <v>1.25</v>
       </c>
       <c r="D3" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="J3" s="4" t="n">
         <v>0.87</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>34.05</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>28.42</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>43.25</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>19.28</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>8.699999999999999</v>
-      </c>
       <c r="K3" s="4" t="n">
-        <v>13.78</v>
+        <v>1.38</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>15.33</v>
+        <v>1.53</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>14.38</v>
+        <v>1.44</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.72</v>
+        <v>0.37</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12.1</v>
+        <v>1.21</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>17.93</v>
+        <v>1.79</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>10.3</v>
+        <v>1.03</v>
       </c>
       <c r="R3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>18.34</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.02</v>
       </c>
-      <c r="S3" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>183.42</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>34.96</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>23.29</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>23.17</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>10.16</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>10.14</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>15.48</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.19</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>39.21</v>
+        <v>3.92</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.64</v>
+        <v>0.66</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>14.27</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41715.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.64</v>
+        <v>0.76</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.25</v>
+        <v>0.63</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>16.81</v>
+        <v>1.68</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>14.03</v>
+        <v>1.4</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.33</v>
+        <v>0.63</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>26.71</v>
+        <v>2.67</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.59</v>
+        <v>0.96</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.35</v>
+        <v>0.44</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.96</v>
+        <v>0.7</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.83</v>
+        <v>0.78</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.09</v>
+        <v>0.71</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.8</v>
+        <v>0.18</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.92</v>
+        <v>0.59</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.11</v>
+        <v>0.51</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>87.45</v>
+        <v>8.74</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>17.54</v>
+        <v>1.75</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>11.65</v>
+        <v>1.17</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.39</v>
+        <v>0.64</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>13.6</v>
+        <v>1.36</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.03</v>
+        <v>0.5</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.15</v>
+        <v>0.52</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.99</v>
+        <v>0.5</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.8</v>
+        <v>0.78</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>24.55</v>
+        <v>2.45</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.35</v>
+        <v>0.34</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.04</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41715.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>16.65</v>
+        <v>1.66</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.89</v>
+        <v>1.29</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>36.4</v>
+        <v>3.64</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>30.16</v>
+        <v>3.02</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.34</v>
+        <v>1.33</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>49.42</v>
+        <v>4.94</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>20.44</v>
+        <v>2.04</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.19</v>
+        <v>0.92</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.09</v>
+        <v>1.41</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>15.42</v>
+        <v>1.54</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.42</v>
+        <v>1.54</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.09</v>
+        <v>0.41</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.99</v>
+        <v>1.3</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>18.92</v>
+        <v>1.89</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.93</v>
+        <v>1.09</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>193.93</v>
+        <v>19.39</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>36.9</v>
+        <v>3.69</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.94</v>
+        <v>1.19</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>24.83</v>
+        <v>2.48</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>13.28</v>
+        <v>1.33</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.74</v>
+        <v>0.17</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>24.92</v>
+        <v>2.49</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.75</v>
+        <v>1.07</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.970000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.95</v>
+        <v>1.09</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>15.87</v>
+        <v>1.59</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>44.72</v>
+        <v>4.47</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.04</v>
+        <v>0.7</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.14</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41715.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>13.43</v>
+        <v>1.34</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>10.4</v>
+        <v>1.04</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>29.38</v>
+        <v>2.94</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>24.33</v>
+        <v>2.43</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>10.76</v>
+        <v>1.08</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>42.74</v>
+        <v>4.27</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>16.5</v>
+        <v>1.65</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>7.43</v>
+        <v>0.74</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>11.36</v>
+        <v>1.14</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>12.43</v>
+        <v>1.24</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>12.45</v>
+        <v>1.25</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.3</v>
+        <v>0.33</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>10.48</v>
+        <v>1.05</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>15.29</v>
+        <v>1.53</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>8.82</v>
+        <v>0.88</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>155.06</v>
+        <v>15.51</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>29.86</v>
+        <v>2.99</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>20.11</v>
+        <v>2.01</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>10.73</v>
+        <v>1.07</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.4</v>
+        <v>0.14</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>21.14</v>
+        <v>2.11</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>8.67</v>
+        <v>0.87</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>8.039999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>8.84</v>
+        <v>0.88</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>12.8</v>
+        <v>1.28</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>38.87</v>
+        <v>3.89</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>5.69</v>
+        <v>0.57</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>12.21</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41715.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>21.43</v>
+        <v>2.14</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>16.36</v>
+        <v>1.64</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>46.78</v>
+        <v>4.68</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>38.7</v>
+        <v>3.87</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>17.03</v>
+        <v>1.7</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>64.77</v>
+        <v>6.48</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>26.17</v>
+        <v>2.62</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>11.77</v>
+        <v>1.18</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>17.8</v>
+        <v>1.78</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>19.31</v>
+        <v>1.93</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>19.84</v>
+        <v>1.98</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>5.33</v>
+        <v>0.53</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>16.76</v>
+        <v>1.68</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>24.2</v>
+        <v>2.42</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>14</v>
+        <v>1.4</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>250.08</v>
+        <v>25.01</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>47.25</v>
+        <v>4.73</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>15.42</v>
+        <v>1.54</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>31.92</v>
+        <v>3.19</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>16.91</v>
+        <v>1.69</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>32.14</v>
+        <v>3.21</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>13.77</v>
+        <v>1.38</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>12.43</v>
+        <v>1.24</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>14.12</v>
+        <v>1.41</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>20.07</v>
+        <v>2.01</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>58.75</v>
+        <v>5.88</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>8.970000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>19.43</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41715.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>14.54</v>
+        <v>1.45</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>11.15</v>
+        <v>1.11</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>31.77</v>
+        <v>3.18</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>26.28</v>
+        <v>2.63</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>11.58</v>
+        <v>1.16</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>47.03</v>
+        <v>4.7</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>17.8</v>
+        <v>1.78</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>8.01</v>
+        <v>0.8</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>12.14</v>
+        <v>1.21</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>13.21</v>
+        <v>1.32</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>13.47</v>
+        <v>1.35</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>3.6</v>
+        <v>0.36</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>11.37</v>
+        <v>1.14</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>16.48</v>
+        <v>1.65</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>9.52</v>
+        <v>0.95</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>167.7</v>
+        <v>16.77</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>32.2</v>
+        <v>3.22</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>10.45</v>
+        <v>1.04</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>21.74</v>
+        <v>2.17</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>11.53</v>
+        <v>1.15</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>22.93</v>
+        <v>2.29</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>8.51</v>
+        <v>0.85</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>9.58</v>
+        <v>0.96</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>13.69</v>
+        <v>1.37</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>42.78</v>
+        <v>4.28</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>6.12</v>
+        <v>0.61</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>13.19</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41715.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>2.45</v>
+        <v>0.24</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>2.04</v>
+        <v>0.2</v>
       </c>
       <c r="D9" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="M9" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="N9" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q9" s="4" t="n">
         <v>0.17</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>14.02</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.67</v>
       </c>
       <c r="R9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>23.58</v>
+        <v>2.36</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>6.04</v>
+        <v>0.6</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>1.72</v>
+        <v>0.17</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>4.14</v>
+        <v>0.41</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>2.17</v>
+        <v>0.22</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>6.6</v>
+        <v>0.66</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>1.64</v>
+        <v>0.16</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>1.71</v>
+        <v>0.17</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>1.62</v>
+        <v>0.16</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>2.55</v>
+        <v>0.26</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>13.19</v>
+        <v>1.32</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>1.12</v>
+        <v>0.11</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>2.28</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41715.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>13.22</v>
+        <v>1.32</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>10.11</v>
+        <v>1.01</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>28.89</v>
+        <v>2.89</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>23.89</v>
+        <v>2.39</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>10.52</v>
+        <v>1.05</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>37.5</v>
+        <v>3.75</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>16.17</v>
+        <v>1.62</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>7.25</v>
+        <v>0.72</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>11</v>
+        <v>1.1</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>11.95</v>
+        <v>1.19</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>12.26</v>
+        <v>1.23</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.28</v>
+        <v>0.33</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>10.35</v>
+        <v>1.03</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>14.95</v>
+        <v>1.49</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>8.65</v>
+        <v>0.86</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>151.66</v>
+        <v>15.17</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>29.05</v>
+        <v>2.9</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>9.51</v>
+        <v>0.95</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>19.61</v>
+        <v>1.96</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>10.44</v>
+        <v>1.04</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.37</v>
+        <v>0.14</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>18.76</v>
+        <v>1.88</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>8.51</v>
+        <v>0.85</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>7.7</v>
+        <v>0.77</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>8.720000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>12.41</v>
+        <v>1.24</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>33.66</v>
+        <v>3.37</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>5.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>11.99</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_283.xlsx
+++ b/DATA_goal/Junction_Flooding_283.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
     <col width="6" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41715.34027777778</v>
+        <v>44964.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>0.51</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.98</v>
+        <v>1.16</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.89</v>
+        <v>1.04</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.92</v>
+        <v>1.18</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.28</v>
+        <v>0.37</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.74</v>
+        <v>0.67</v>
       </c>
       <c r="M2" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AA2" s="4" t="n">
         <v>0.39</v>
       </c>
-      <c r="N2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z2" s="4" t="n">
+      <c r="AB2" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AD2" s="4" t="n">
         <v>0.7</v>
       </c>
-      <c r="AA2" s="4" t="n">
+      <c r="AE2" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AG2" s="4" t="n">
         <v>0.33</v>
       </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AG2" s="4" t="n">
-        <v>0.2</v>
-      </c>
       <c r="AH2" s="4" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41715.34722222222</v>
+        <v>44964.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.56</v>
+        <v>1.93</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.84</v>
+        <v>3.58</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.27</v>
+        <v>1.59</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.33</v>
+        <v>5.59</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.93</v>
+        <v>2.45</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.87</v>
+        <v>1.12</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.38</v>
+        <v>1.7</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.37</v>
+        <v>0.49</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.21</v>
+        <v>1.54</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.79</v>
+        <v>2.24</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.03</v>
+        <v>1.3</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0.05</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>18.34</v>
+        <v>23.27</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.5</v>
+        <v>4.41</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.11</v>
+        <v>1.44</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.33</v>
+        <v>2.92</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.27</v>
+        <v>1.61</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.32</v>
+        <v>2.93</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.02</v>
+        <v>1.28</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.55</v>
+        <v>1.92</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.02</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.92</v>
+        <v>5.08</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.66</v>
+        <v>0.87</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.43</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41715.35416666666</v>
+        <v>44964.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C4" s="4" t="n">
         <v>0.76</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>0.63</v>
-      </c>
       <c r="D4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.68</v>
+        <v>2.14</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.4</v>
+        <v>1.77</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.63</v>
+        <v>0.79</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.67</v>
+        <v>3.36</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.96</v>
+        <v>1.23</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.44</v>
+        <v>0.57</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.7</v>
+        <v>0.86</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.93</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.91</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.59</v>
+        <v>0.76</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.9</v>
+        <v>1.12</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.51</v>
+        <v>0.65</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.02</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>8.74</v>
+        <v>11.26</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.75</v>
+        <v>2.22</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.17</v>
+        <v>1.46</v>
       </c>
       <c r="X4" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AA4" s="4" t="n">
         <v>0.64</v>
       </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.5</v>
-      </c>
       <c r="AB4" s="4" t="n">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.45</v>
+        <v>3.08</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.34</v>
+        <v>0.44</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.7</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41715.36111111111</v>
+        <v>44964.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.64</v>
+        <v>3.93</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.02</v>
+        <v>3.25</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.94</v>
+        <v>5.42</v>
       </c>
       <c r="I5" s="4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P5" s="4" t="n">
         <v>2.04</v>
       </c>
-      <c r="J5" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.89</v>
-      </c>
       <c r="Q5" s="4" t="n">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>19.39</v>
+        <v>21</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.69</v>
+        <v>3.99</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.19</v>
+        <v>1.31</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.48</v>
+        <v>2.67</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.49</v>
+        <v>2.71</v>
       </c>
       <c r="AA5" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AB5" s="4" t="n">
         <v>1.07</v>
       </c>
-      <c r="AB5" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="AC5" s="4" t="n">
-        <v>1.09</v>
+        <v>1.24</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.59</v>
+        <v>1.71</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.01</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.47</v>
+        <v>4.91</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41715.36805555555</v>
+        <v>44964.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.34</v>
+        <v>2.99</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.04</v>
+        <v>2.54</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>2.94</v>
+        <v>6.99</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.43</v>
+        <v>5.77</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.08</v>
+        <v>2.64</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>4.27</v>
+        <v>16.42</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.65</v>
+        <v>4.15</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.74</v>
+        <v>2</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.14</v>
+        <v>3.01</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.24</v>
+        <v>3.22</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.25</v>
+        <v>2.97</v>
       </c>
       <c r="N6" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>32.68</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="Y6" s="4" t="n">
         <v>0.33</v>
       </c>
-      <c r="O6" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>15.51</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.14</v>
-      </c>
       <c r="Z6" s="4" t="n">
-        <v>2.11</v>
+        <v>7.92</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.87</v>
+        <v>2.14</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.8</v>
+        <v>2.26</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.88</v>
+        <v>2.48</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.28</v>
+        <v>3.35</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>3.89</v>
+        <v>15.49</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.57</v>
+        <v>1.52</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41715.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>25.01</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.94</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41715.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>16.77</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41715.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41715.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>15.17</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41715.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>8.52</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>18.19</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>49.87</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>8.83</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>16.84</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>4.28</v>
+        <v>2.91</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_283.xlsx
+++ b/DATA_goal/Junction_Flooding_283.xlsx
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44964.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.46</v>
+        <v>4.58</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.11</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.16</v>
+        <v>11.55</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.39</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.91</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.18</v>
+        <v>11.84</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.75</v>
+        <v>7.5</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.65</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.26</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.67</v>
+        <v>6.66</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.08</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.28</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.35</v>
       </c>
       <c r="Q2" s="4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>66.34</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.38</v>
       </c>
-      <c r="R2" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.84</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.85</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.53</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.7</v>
+        <v>6.99</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.99</v>
+        <v>9.92</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.26</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44964.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.93</v>
+        <v>19.3</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.27</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.3</v>
+        <v>42.99</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.58</v>
+        <v>35.75</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.59</v>
+        <v>15.85</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.59</v>
+        <v>55.88</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.45</v>
+        <v>24.51</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.12</v>
+        <v>11.19</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.7</v>
+        <v>17.04</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.83</v>
+        <v>18.27</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.83</v>
+        <v>18.29</v>
       </c>
       <c r="N3" s="4" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>15.37</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>22.39</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="S3" s="4" t="n">
         <v>0.49</v>
       </c>
-      <c r="O3" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="T3" s="4" t="n">
-        <v>23.27</v>
+        <v>232.7</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.41</v>
+        <v>44.06</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.44</v>
+        <v>14.37</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.92</v>
+        <v>29.2</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.61</v>
+        <v>16.08</v>
       </c>
       <c r="Y3" s="4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>29.27</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>12.84</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>13.97</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>19.17</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.2</v>
       </c>
-      <c r="Z3" s="4" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>5.08</v>
+        <v>50.82</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.87</v>
+        <v>8.65</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.79</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44964.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.49</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.63</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.14</v>
+        <v>21.38</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.77</v>
+        <v>17.74</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.92</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.36</v>
+        <v>33.6</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.23</v>
+        <v>12.31</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.57</v>
+        <v>5.66</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.93</v>
+        <v>9.26</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.09</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.4</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.58</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.12</v>
+        <v>11.23</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.5</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.25</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>11.26</v>
+        <v>112.65</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.22</v>
+        <v>22.2</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.13</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.46</v>
+        <v>14.61</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.68</v>
+        <v>16.77</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.42</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.63</v>
+        <v>6.27</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.1</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.69</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.08</v>
+        <v>30.84</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.38</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.89</v>
+        <v>8.890000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44964.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.78</v>
+        <v>17.8</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.37</v>
+        <v>13.74</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.93</v>
+        <v>39.3</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.25</v>
+        <v>32.5</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.35</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.42</v>
+        <v>54.15</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.22</v>
+        <v>22.19</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1</v>
+        <v>10.04</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.52</v>
+        <v>15.17</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.63</v>
+        <v>16.28</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.67</v>
+        <v>16.69</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.47</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.4</v>
+        <v>14.03</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.04</v>
+        <v>20.37</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.81</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>21</v>
+        <v>209.97</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.99</v>
+        <v>39.91</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.31</v>
+        <v>13.06</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.67</v>
+        <v>26.71</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.38</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.84</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.71</v>
+        <v>27.09</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.16</v>
+        <v>11.64</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.07</v>
+        <v>10.69</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.24</v>
+        <v>12.36</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.71</v>
+        <v>17.08</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.91</v>
+        <v>49.12</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.77</v>
+        <v>7.69</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.63</v>
+        <v>16.32</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_283.xlsx
+++ b/DATA_goal/Junction_Flooding_283.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44964.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.58</v>
+        <v>4.576</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.11</v>
+        <v>5.111</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>11.55</v>
+        <v>11.554</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.39</v>
+        <v>10.389</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.91</v>
+        <v>4.907</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>11.84</v>
+        <v>11.844</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7.5</v>
+        <v>7.502</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.65</v>
+        <v>3.653</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.26</v>
+        <v>6.261</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.66</v>
+        <v>6.656</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.08</v>
+        <v>5.084</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.31</v>
+        <v>1.314</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>4.28</v>
+        <v>4.277</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.35</v>
+        <v>6.354</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>3.75</v>
+        <v>3.754</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.4</v>
+        <v>0.401</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.14</v>
+        <v>0.139</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>66.34</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>13.25</v>
+        <v>13.251</v>
       </c>
       <c r="V2" s="4" t="n">
         <v>4.22</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>7.56</v>
+        <v>7.561</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>5.69</v>
+        <v>5.692</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
       <c r="Z2" s="4" t="n">
         <v>7.84</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>3.85</v>
+        <v>3.854</v>
       </c>
       <c r="AB2" s="4" t="n">
         <v>5.2</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.53</v>
+        <v>5.528</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.99</v>
+        <v>6.991</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.24</v>
+        <v>0.237</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>9.92</v>
+        <v>9.923999999999999</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.26</v>
+        <v>3.256</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5</v>
+        <v>4.997</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44964.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>19.3</v>
+        <v>19.304</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>15.27</v>
+        <v>15.273</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.45</v>
+        <v>0.445</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>42.99</v>
+        <v>42.992</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>35.75</v>
+        <v>35.751</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>15.85</v>
+        <v>15.855</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>55.88</v>
+        <v>55.877</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>24.51</v>
+        <v>24.511</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.19</v>
+        <v>11.193</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>17.04</v>
+        <v>17.037</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>18.27</v>
+        <v>18.267</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>18.29</v>
+        <v>18.295</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.89</v>
+        <v>4.893</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>15.37</v>
+        <v>15.372</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>22.39</v>
+        <v>22.385</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>13</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.39</v>
+        <v>0.393</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.49</v>
+        <v>0.487</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>232.7</v>
+        <v>232.696</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>44.06</v>
+        <v>44.061</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>14.37</v>
+        <v>14.373</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>29.2</v>
+        <v>29.201</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>16.08</v>
+        <v>16.079</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.98</v>
+        <v>1.977</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>29.27</v>
+        <v>29.273</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>12.84</v>
+        <v>12.839</v>
       </c>
       <c r="AB3" s="4" t="n">
         <v>12.2</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>13.97</v>
+        <v>13.972</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>19.17</v>
+        <v>19.167</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.2</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>50.82</v>
+        <v>50.824</v>
       </c>
       <c r="AG3" s="4" t="n">
         <v>8.65</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>17.9</v>
+        <v>17.895</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44964.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.49</v>
+        <v>9.489000000000001</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.63</v>
+        <v>7.631</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.16</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>21.38</v>
+        <v>21.377</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>17.74</v>
+        <v>17.736</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.92</v>
+        <v>7.922</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>33.6</v>
+        <v>33.597</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>12.31</v>
+        <v>12.308</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.66</v>
+        <v>5.657</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>8.638999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9.26</v>
+        <v>9.259</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.09</v>
+        <v>9.092000000000001</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.4</v>
+        <v>2.398</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.58</v>
+        <v>7.577</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11.23</v>
+        <v>11.227</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.5</v>
+        <v>6.503</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.25</v>
+        <v>0.251</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.19</v>
+        <v>0.192</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>112.65</v>
+        <v>112.648</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>22.2</v>
+        <v>22.203</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.13</v>
+        <v>7.133</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>14.61</v>
+        <v>14.612</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>8.108000000000001</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.99</v>
+        <v>0.987</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>16.77</v>
+        <v>16.771</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.42</v>
+        <v>6.421</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.27</v>
+        <v>6.268</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.1</v>
+        <v>7.097</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>9.69</v>
+        <v>9.695</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.16</v>
+        <v>0.158</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>30.84</v>
+        <v>30.841</v>
       </c>
       <c r="AG4" s="4" t="n">
         <v>4.38</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>8.893000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>16.32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44964.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>16.42</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>32.68</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>15.49</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.91</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_283.xlsx
+++ b/DATA_goal/Junction_Flooding_283.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
@@ -469,7 +469,7 @@
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -967,103 +967,207 @@
         <v>44964.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>17.8</v>
+        <v>17.798</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.74</v>
+        <v>13.743</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.47</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>39.3</v>
+        <v>39.301</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>32.5</v>
+        <v>32.503</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.35</v>
+        <v>14.354</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>54.15</v>
+        <v>54.153</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>22.19</v>
+        <v>22.193</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.04</v>
+        <v>10.041</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>15.17</v>
+        <v>15.171</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.28</v>
+        <v>16.285</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>16.69</v>
+        <v>16.692</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.47</v>
+        <v>4.473</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>14.03</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>20.37</v>
+        <v>20.374</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.81</v>
+        <v>11.813</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.29</v>
+        <v>0.287</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.44</v>
+        <v>0.444</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>209.97</v>
+        <v>209.967</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>39.91</v>
+        <v>39.908</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.06</v>
+        <v>13.061</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>26.71</v>
+        <v>26.713</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>14.38</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.84</v>
+        <v>1.844</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>27.09</v>
+        <v>27.091</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.64</v>
+        <v>11.639</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.69</v>
+        <v>10.689</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.36</v>
+        <v>12.364</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>17.08</v>
+        <v>17.083</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.129</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>49.12</v>
+        <v>49.116</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.69</v>
+        <v>7.688</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>16.32</v>
+        <v>16.322</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44964.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>16.42</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>32.68</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>15.49</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>2.91</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_283.xlsx
+++ b/DATA_goal/Junction_Flooding_283.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
@@ -469,7 +469,7 @@
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -967,207 +967,103 @@
         <v>44964.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>17.798</v>
+        <v>17.8</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.743</v>
+        <v>13.74</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.47</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>39.301</v>
+        <v>39.3</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>32.503</v>
+        <v>32.5</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.354</v>
+        <v>14.35</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>54.153</v>
+        <v>54.15</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>22.193</v>
+        <v>22.19</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.041</v>
+        <v>10.04</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>15.171</v>
+        <v>15.17</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.285</v>
+        <v>16.28</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>16.692</v>
+        <v>16.69</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.473</v>
+        <v>4.47</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>14.03</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>20.374</v>
+        <v>20.37</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.813</v>
+        <v>11.81</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.287</v>
+        <v>0.29</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.444</v>
+        <v>0.44</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>209.967</v>
+        <v>209.97</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>39.908</v>
+        <v>39.91</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.061</v>
+        <v>13.06</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>26.713</v>
+        <v>26.71</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>14.38</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.844</v>
+        <v>1.84</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>27.091</v>
+        <v>27.09</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.639</v>
+        <v>11.64</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.689</v>
+        <v>10.69</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.364</v>
+        <v>12.36</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>17.083</v>
+        <v>17.08</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.129</v>
+        <v>0.13</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>49.116</v>
+        <v>49.12</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.688</v>
+        <v>7.69</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>16.322</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44964.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>16.42</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>32.68</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>15.49</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.91</v>
+        <v>16.32</v>
       </c>
     </row>
   </sheetData>
